--- a/시장분석용_정보/시장분석용_4690033000.xlsx
+++ b/시장분석용_정보/시장분석용_4690033000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="40">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -539,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,64 +591,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1207</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -708,10 +612,10 @@
         <v>4158016900</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4690033000</v>
@@ -720,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>10377391</v>
@@ -732,7 +636,7 @@
         <v>672000</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -744,105 +648,57 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>29.76</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>64.88</v>
+      </c>
+      <c r="AD2">
         <v>35.12</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>64.88</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>100</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>29.76</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>70.23999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>64.88</v>
-      </c>
-      <c r="AT2">
-        <v>35.12</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1508</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -854,10 +710,10 @@
         <v>4569700620</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4690033000</v>
@@ -866,7 +722,7 @@
         <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>555932</v>
@@ -878,117 +734,69 @@
         <v>54000</v>
       </c>
       <c r="O3">
+        <v>84.91</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>15.09</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>100</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>84.91</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>15.09</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>84.91</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>15.09</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>84.91</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>15.09</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>100</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>3035</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -1000,10 +808,10 @@
         <v>4569700620</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>4690033000</v>
@@ -1012,7 +820,7 @@
         <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L4">
         <v>1578384</v>
@@ -1024,117 +832,69 @@
         <v>44229</v>
       </c>
       <c r="O4">
-        <v>96.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>43.86</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>38.15</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>14.53</v>
+      </c>
+      <c r="X4">
         <v>3.46</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>24.29</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>34.11</v>
-      </c>
-      <c r="U4">
-        <v>38.15</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>3.46</v>
       </c>
-      <c r="X4">
-        <v>5.36</v>
-      </c>
-      <c r="Y4">
-        <v>29.49</v>
-      </c>
-      <c r="Z4">
-        <v>65.15000000000001</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
-        <v>0</v>
+        <v>43.51</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>31.4</v>
       </c>
       <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>43.86</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>38.15</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>14.53</v>
-      </c>
-      <c r="AN4">
-        <v>3.46</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>3.46</v>
-      </c>
-      <c r="AS4">
-        <v>43.51</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>31.4</v>
-      </c>
-      <c r="AV4">
         <v>21.64</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>4570</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202003</v>
@@ -1146,10 +906,10 @@
         <v>4569700620</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4690033000</v>
@@ -1158,7 +918,7 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>2481204</v>
@@ -1170,117 +930,69 @@
         <v>62625</v>
       </c>
       <c r="O5">
-        <v>22.59</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>77.41</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="R5">
-        <v>3.07</v>
+        <v>55.55</v>
       </c>
       <c r="S5">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>17.21</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>77.41</v>
+        <v>34.49</v>
       </c>
       <c r="X5">
         <v>5.91</v>
       </c>
       <c r="Y5">
-        <v>76.73</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>17.37</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>16.39</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>40.7</v>
       </c>
       <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>4.05</v>
-      </c>
-      <c r="AH5">
-        <v>55.55</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>34.49</v>
-      </c>
-      <c r="AN5">
-        <v>5.91</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>16.39</v>
-      </c>
-      <c r="AS5">
-        <v>5.91</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>40.7</v>
-      </c>
-      <c r="AV5">
         <v>37.01</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>5785</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202004</v>
@@ -1292,10 +1004,10 @@
         <v>4158016900</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>4690033000</v>
@@ -1304,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>5194527</v>
@@ -1316,50 +1028,50 @@
         <v>519870</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1.92</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>98.08</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>100</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>98.08</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>1.92</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>98.08</v>
-      </c>
-      <c r="Y6">
-        <v>1.92</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
@@ -1369,64 +1081,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>1.92</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>98.08</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>100</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>6094</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202004</v>
@@ -1438,10 +1102,10 @@
         <v>4569700620</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>4690033000</v>
@@ -1450,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L7">
         <v>1620698</v>
@@ -1462,117 +1126,69 @@
         <v>36044</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>14.58</v>
       </c>
       <c r="R7">
-        <v>14.58</v>
+        <v>6.66</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>33.85</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>7.06</v>
+      </c>
+      <c r="W7">
+        <v>17.17</v>
+      </c>
+      <c r="X7">
+        <v>20.68</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>69.11</v>
+      </c>
+      <c r="AD7">
         <v>2.22</v>
       </c>
-      <c r="T7">
-        <v>22.63</v>
-      </c>
-      <c r="U7">
-        <v>4.44</v>
-      </c>
-      <c r="V7">
-        <v>56.13</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>22.9</v>
-      </c>
-      <c r="Y7">
-        <v>6.38</v>
-      </c>
-      <c r="Z7">
-        <v>70.72</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
-        <v>0</v>
+        <v>28.67</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>14.58</v>
-      </c>
-      <c r="AH7">
-        <v>6.66</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>33.85</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>7.06</v>
-      </c>
-      <c r="AM7">
-        <v>17.17</v>
-      </c>
-      <c r="AN7">
-        <v>20.68</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>69.11</v>
-      </c>
-      <c r="AT7">
-        <v>2.22</v>
-      </c>
-      <c r="AU7">
-        <v>28.67</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>7646</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202005</v>
@@ -1584,10 +1200,10 @@
         <v>4569700620</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>4690033000</v>
@@ -1596,7 +1212,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>1624354</v>
@@ -1608,49 +1224,49 @@
         <v>45529</v>
       </c>
       <c r="O8">
-        <v>89.55</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>10.45</v>
+        <v>6.06</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
+        <v>10.98</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>63.85</v>
+      </c>
+      <c r="U8">
+        <v>19.11</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>6.06</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>53.62</v>
-      </c>
-      <c r="V8">
-        <v>40.32</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>19.11</v>
-      </c>
-      <c r="Y8">
-        <v>71.7</v>
-      </c>
-      <c r="Z8">
-        <v>9.19</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
-        <v>0</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1659,66 +1275,18 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>6.06</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
         <v>10.98</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>63.85</v>
-      </c>
-      <c r="AK8">
-        <v>19.11</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>6.06</v>
-      </c>
-      <c r="AS8">
-        <v>82.95999999999999</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>10.98</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>9187</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202006</v>
@@ -1730,10 +1298,10 @@
         <v>4569700620</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>4690033000</v>
@@ -1742,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>3112127</v>
@@ -1754,117 +1322,69 @@
         <v>75825</v>
       </c>
       <c r="O9">
-        <v>92.78</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>7.22</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="R9">
-        <v>13.29</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>57.22</v>
       </c>
       <c r="U9">
-        <v>79.48999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>22.27</v>
       </c>
       <c r="W9">
-        <v>7.22</v>
+        <v>0</v>
       </c>
       <c r="X9">
+        <v>2.8</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2.8</v>
+      </c>
+      <c r="AC9">
+        <v>87.5</v>
+      </c>
+      <c r="AD9">
         <v>9.69</v>
       </c>
-      <c r="Y9">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="Z9">
-        <v>10.81</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>8.01</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>57.22</v>
-      </c>
-      <c r="AK9">
-        <v>9.69</v>
-      </c>
-      <c r="AL9">
-        <v>22.27</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>2.8</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>2.8</v>
-      </c>
-      <c r="AS9">
-        <v>87.5</v>
-      </c>
-      <c r="AT9">
-        <v>9.69</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>10743</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202007</v>
@@ -1876,10 +1396,10 @@
         <v>4569700620</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>4690033000</v>
@@ -1888,7 +1408,7 @@
         <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L10">
         <v>2369805</v>
@@ -1900,117 +1420,69 @@
         <v>49644</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>10.59</v>
       </c>
       <c r="R10">
-        <v>40.13</v>
+        <v>29.92</v>
       </c>
       <c r="S10">
-        <v>45.41</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>32.36</v>
       </c>
       <c r="U10">
-        <v>11.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>23.59</v>
+      </c>
+      <c r="X10">
+        <v>0.51</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>29.92</v>
+      </c>
+      <c r="AC10">
+        <v>44.4</v>
+      </c>
+      <c r="AD10">
         <v>3.36</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>64.08</v>
-      </c>
-      <c r="Y10">
-        <v>10.21</v>
-      </c>
-      <c r="Z10">
-        <v>25.72</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
       <c r="AE10">
-        <v>0</v>
+        <v>22.31</v>
       </c>
       <c r="AF10">
-        <v>2.08</v>
-      </c>
-      <c r="AG10">
-        <v>10.59</v>
-      </c>
-      <c r="AH10">
-        <v>29.92</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>32.36</v>
-      </c>
-      <c r="AK10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>23.59</v>
-      </c>
-      <c r="AN10">
-        <v>0.51</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>29.92</v>
-      </c>
-      <c r="AS10">
-        <v>44.4</v>
-      </c>
-      <c r="AT10">
-        <v>3.36</v>
-      </c>
-      <c r="AU10">
-        <v>22.31</v>
-      </c>
-      <c r="AV10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>12294</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202008</v>
@@ -2022,10 +1494,10 @@
         <v>4569700620</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>4690033000</v>
@@ -2034,7 +1506,7 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L11">
         <v>3550389</v>
@@ -2046,117 +1518,69 @@
         <v>57283</v>
       </c>
       <c r="O11">
-        <v>74.45</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>25.55</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>16.58</v>
+        <v>25.65</v>
       </c>
       <c r="S11">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>16.41</v>
+        <v>23.61</v>
       </c>
       <c r="U11">
-        <v>44.38</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>16.82</v>
+        <v>50.74</v>
       </c>
       <c r="X11">
-        <v>21.04</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>61.65</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>8.73</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>27.19</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>50.74</v>
       </c>
       <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>25.65</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>23.61</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>50.74</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>13.63</v>
-      </c>
-      <c r="AS11">
-        <v>27.19</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>50.74</v>
-      </c>
-      <c r="AV11">
         <v>8.44</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>13513</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202009</v>
@@ -2168,10 +1592,10 @@
         <v>4158016900</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>4690033000</v>
@@ -2180,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>7195596</v>
@@ -2192,7 +1616,7 @@
         <v>704000</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2204,7 +1628,7 @@
         <v>57.39</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>42.61</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2213,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>42.61</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>57.39</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>42.61</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2234,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2245,64 +1669,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>57.39</v>
-      </c>
-      <c r="AI12">
-        <v>42.61</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>100</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>13843</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202009</v>
@@ -2314,10 +1690,10 @@
         <v>4569700620</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>4690033000</v>
@@ -2326,7 +1702,7 @@
         <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L13">
         <v>1684285</v>
@@ -2338,37 +1714,37 @@
         <v>53100</v>
       </c>
       <c r="O13">
-        <v>38.2</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>12.63</v>
       </c>
       <c r="R13">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>33.65</v>
+        <v>35.25</v>
       </c>
       <c r="T13">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>52.12</v>
       </c>
       <c r="W13">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>95.45</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2377,78 +1753,30 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>47.88</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>27.72</v>
       </c>
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>12.63</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>35.25</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>52.12</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>47.88</v>
-      </c>
-      <c r="AS13">
-        <v>24.4</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>27.72</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>15390</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202010</v>
@@ -2460,10 +1788,10 @@
         <v>4569700620</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>4690033000</v>
@@ -2472,7 +1800,7 @@
         <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L14">
         <v>4337122</v>
@@ -2484,117 +1812,69 @@
         <v>49882</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.04</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>18.18</v>
       </c>
       <c r="R14">
-        <v>14.01</v>
+        <v>48.93</v>
       </c>
       <c r="S14">
-        <v>24.62</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>35.71</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>23.67</v>
+        <v>6.31</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>15.63</v>
       </c>
       <c r="X14">
-        <v>1.99</v>
+        <v>3.92</v>
       </c>
       <c r="Y14">
-        <v>47.91</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>50.09</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>23.55</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>22.06</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>42.35</v>
       </c>
       <c r="AF14">
-        <v>7.04</v>
-      </c>
-      <c r="AG14">
-        <v>18.18</v>
-      </c>
-      <c r="AH14">
-        <v>48.93</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>6.31</v>
-      </c>
-      <c r="AM14">
-        <v>15.63</v>
-      </c>
-      <c r="AN14">
-        <v>3.92</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>23.55</v>
-      </c>
-      <c r="AS14">
-        <v>22.06</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>42.35</v>
-      </c>
-      <c r="AV14">
         <v>12.04</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>16938</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202011</v>
@@ -2606,10 +1886,10 @@
         <v>4569700620</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>4690033000</v>
@@ -2618,7 +1898,7 @@
         <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L15">
         <v>4285690</v>
@@ -2630,117 +1910,69 @@
         <v>76100</v>
       </c>
       <c r="O15">
-        <v>81.81</v>
+        <v>1.25</v>
       </c>
       <c r="P15">
-        <v>18.19</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="R15">
-        <v>30.41</v>
+        <v>14.62</v>
       </c>
       <c r="S15">
-        <v>16.52</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>15.83</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>14.62</v>
+        <v>1.11</v>
       </c>
       <c r="V15">
+        <v>6.69</v>
+      </c>
+      <c r="W15">
+        <v>60.4</v>
+      </c>
+      <c r="X15">
         <v>4.42</v>
       </c>
-      <c r="W15">
-        <v>18.19</v>
-      </c>
-      <c r="X15">
-        <v>12.61</v>
-      </c>
       <c r="Y15">
-        <v>52.55</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>34.83</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>27.38</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>1.25</v>
+        <v>68.2</v>
       </c>
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>11.5</v>
-      </c>
-      <c r="AH15">
-        <v>14.62</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>1.11</v>
-      </c>
-      <c r="AL15">
-        <v>6.69</v>
-      </c>
-      <c r="AM15">
-        <v>60.4</v>
-      </c>
-      <c r="AN15">
-        <v>4.42</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>4.42</v>
-      </c>
-      <c r="AS15">
-        <v>27.38</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>68.2</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>18490</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202012</v>
@@ -2752,10 +1984,10 @@
         <v>4569700620</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>4690033000</v>
@@ -2764,7 +1996,7 @@
         <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L16">
         <v>5260227</v>
@@ -2776,117 +2008,69 @@
         <v>52905</v>
       </c>
       <c r="O16">
-        <v>89.53</v>
+        <v>5.78</v>
       </c>
       <c r="P16">
-        <v>10.47</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="R16">
-        <v>8.73</v>
+        <v>22.12</v>
       </c>
       <c r="S16">
-        <v>30.86</v>
+        <v>2.88</v>
       </c>
       <c r="T16">
-        <v>17.27</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>12.69</v>
+        <v>5.52</v>
       </c>
       <c r="W16">
-        <v>10.47</v>
+        <v>57.63</v>
       </c>
       <c r="X16">
-        <v>3.95</v>
+        <v>1.04</v>
       </c>
       <c r="Y16">
-        <v>49.12</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>42.16</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>4.77</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>47.36</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>5.78</v>
+        <v>47.47</v>
       </c>
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>5.03</v>
-      </c>
-      <c r="AH16">
-        <v>22.12</v>
-      </c>
-      <c r="AI16">
-        <v>2.88</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>5.52</v>
-      </c>
-      <c r="AM16">
-        <v>57.63</v>
-      </c>
-      <c r="AN16">
-        <v>1.04</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>5.17</v>
-      </c>
-      <c r="AS16">
-        <v>47.36</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>47.47</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>20024</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202101</v>
@@ -2898,10 +2082,10 @@
         <v>4569700620</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>4690033000</v>
@@ -2910,7 +2094,7 @@
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L17">
         <v>2268162</v>
@@ -2922,40 +2106,40 @@
         <v>34377</v>
       </c>
       <c r="O17">
-        <v>75.63</v>
+        <v>1.39</v>
       </c>
       <c r="P17">
-        <v>24.37</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>41.08</v>
+        <v>25.51</v>
       </c>
       <c r="S17">
-        <v>11.64</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>13.43</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>4.23</v>
+        <v>16.02</v>
       </c>
       <c r="W17">
-        <v>24.37</v>
+        <v>36.03</v>
       </c>
       <c r="X17">
-        <v>21.48</v>
+        <v>21.06</v>
       </c>
       <c r="Y17">
-        <v>51.31</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>27.21</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2964,75 +2148,27 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>47.95</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.39</v>
+        <v>52.05</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>25.51</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>16.02</v>
-      </c>
-      <c r="AM17">
-        <v>36.03</v>
-      </c>
-      <c r="AN17">
-        <v>21.06</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>47.95</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>52.05</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>21562</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202102</v>
@@ -3044,10 +2180,10 @@
         <v>4569700620</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <v>4690033000</v>
@@ -3056,7 +2192,7 @@
         <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L18">
         <v>2889881</v>
@@ -3068,117 +2204,69 @@
         <v>38060</v>
       </c>
       <c r="O18">
-        <v>90.58</v>
+        <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>21.4</v>
+      </c>
+      <c r="R18">
+        <v>50.43</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>9.42</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>11.65</v>
-      </c>
-      <c r="S18">
-        <v>18.25</v>
-      </c>
-      <c r="T18">
-        <v>4.76</v>
-      </c>
-      <c r="U18">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="V18">
-        <v>46.38</v>
-      </c>
       <c r="W18">
-        <v>9.42</v>
+        <v>8.07</v>
       </c>
       <c r="X18">
-        <v>20.18</v>
+        <v>10.67</v>
       </c>
       <c r="Y18">
-        <v>45.31</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>34.51</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>50.43</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>32.07</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>16.08</v>
       </c>
       <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>21.4</v>
-      </c>
-      <c r="AH18">
-        <v>50.43</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>9.42</v>
-      </c>
-      <c r="AM18">
-        <v>8.07</v>
-      </c>
-      <c r="AN18">
-        <v>10.67</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>50.43</v>
-      </c>
-      <c r="AS18">
-        <v>32.07</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>16.08</v>
-      </c>
-      <c r="AV18">
         <v>1.42</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>23110</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202103</v>
@@ -3190,10 +2278,10 @@
         <v>4569700620</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>4690033000</v>
@@ -3202,7 +2290,7 @@
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L19">
         <v>4993580</v>
@@ -3214,117 +2302,69 @@
         <v>40304</v>
       </c>
       <c r="O19">
-        <v>83.3</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>16.7</v>
+        <v>3.64</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>10.07</v>
       </c>
       <c r="R19">
-        <v>6.72</v>
+        <v>12.32</v>
       </c>
       <c r="S19">
-        <v>9.43</v>
+        <v>2.12</v>
       </c>
       <c r="T19">
-        <v>28.98</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>23.28</v>
+        <v>11.58</v>
       </c>
       <c r="V19">
-        <v>14.9</v>
+        <v>23.34</v>
       </c>
       <c r="W19">
-        <v>16.7</v>
+        <v>31.5</v>
       </c>
       <c r="X19">
-        <v>5.29</v>
+        <v>5.43</v>
       </c>
       <c r="Y19">
-        <v>32.8</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>61.9</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>62.6</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>18.21</v>
       </c>
       <c r="AF19">
-        <v>3.64</v>
-      </c>
-      <c r="AG19">
-        <v>10.07</v>
-      </c>
-      <c r="AH19">
-        <v>12.32</v>
-      </c>
-      <c r="AI19">
-        <v>2.12</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>11.58</v>
-      </c>
-      <c r="AL19">
-        <v>23.34</v>
-      </c>
-      <c r="AM19">
-        <v>31.5</v>
-      </c>
-      <c r="AN19">
-        <v>5.43</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>3.79</v>
-      </c>
-      <c r="AS19">
-        <v>62.6</v>
-      </c>
-      <c r="AT19">
-        <v>12.3</v>
-      </c>
-      <c r="AU19">
-        <v>18.21</v>
-      </c>
-      <c r="AV19">
         <v>3.1</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>24667</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202104</v>
@@ -3336,10 +2376,10 @@
         <v>4569700620</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>4690033000</v>
@@ -3348,7 +2388,7 @@
         <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L20">
         <v>5885203</v>
@@ -3360,117 +2400,69 @@
         <v>33526</v>
       </c>
       <c r="O20">
-        <v>61.55</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>38.45</v>
+        <v>8.33</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="R20">
-        <v>5.99</v>
+        <v>9.81</v>
       </c>
       <c r="S20">
-        <v>5.33</v>
+        <v>5.4</v>
       </c>
       <c r="T20">
-        <v>24.95</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>7.7</v>
+        <v>3.3</v>
       </c>
       <c r="V20">
-        <v>17.58</v>
+        <v>24.9</v>
       </c>
       <c r="W20">
-        <v>38.45</v>
+        <v>16.26</v>
       </c>
       <c r="X20">
-        <v>25.98</v>
+        <v>25.77</v>
       </c>
       <c r="Y20">
-        <v>50.36</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>23.67</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>67.62</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>17.1</v>
       </c>
       <c r="AF20">
-        <v>8.33</v>
-      </c>
-      <c r="AG20">
-        <v>6.24</v>
-      </c>
-      <c r="AH20">
-        <v>9.81</v>
-      </c>
-      <c r="AI20">
-        <v>5.4</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>3.3</v>
-      </c>
-      <c r="AL20">
-        <v>24.9</v>
-      </c>
-      <c r="AM20">
-        <v>16.26</v>
-      </c>
-      <c r="AN20">
-        <v>25.77</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>1.88</v>
-      </c>
-      <c r="AS20">
-        <v>67.62</v>
-      </c>
-      <c r="AT20">
-        <v>13.4</v>
-      </c>
-      <c r="AU20">
-        <v>17.1</v>
-      </c>
-      <c r="AV20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>26239</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202105</v>
@@ -3482,10 +2474,10 @@
         <v>4569700620</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4690033000</v>
@@ -3494,7 +2486,7 @@
         <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L21">
         <v>1837119</v>
@@ -3506,117 +2498,69 @@
         <v>30125</v>
       </c>
       <c r="O21">
-        <v>84.23</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>15.77</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>9.32</v>
       </c>
       <c r="R21">
-        <v>36.04</v>
+        <v>4.73</v>
       </c>
       <c r="S21">
-        <v>13.28</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>24.07</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>8.35</v>
+        <v>12.59</v>
       </c>
       <c r="V21">
+        <v>37.57</v>
+      </c>
+      <c r="W21">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="X21">
+        <v>27.25</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>2.49</v>
       </c>
-      <c r="W21">
-        <v>15.77</v>
-      </c>
-      <c r="X21">
-        <v>6.72</v>
-      </c>
-      <c r="Y21">
-        <v>21.36</v>
-      </c>
-      <c r="Z21">
-        <v>71.92</v>
-      </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>59.09</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>37.57</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>9.32</v>
-      </c>
-      <c r="AH21">
-        <v>4.73</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>12.59</v>
-      </c>
-      <c r="AL21">
-        <v>37.57</v>
-      </c>
-      <c r="AM21">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AN21">
-        <v>27.25</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>2.49</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0.86</v>
-      </c>
-      <c r="AS21">
-        <v>59.09</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>37.57</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>27809</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202106</v>
@@ -3628,10 +2572,10 @@
         <v>4569700620</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>4690033000</v>
@@ -3640,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>5647816</v>
@@ -3652,117 +2596,69 @@
         <v>46583</v>
       </c>
       <c r="O22">
-        <v>75.03</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>24.97</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="R22">
-        <v>5.17</v>
+        <v>38.92</v>
       </c>
       <c r="S22">
-        <v>4.7</v>
+        <v>0.48</v>
       </c>
       <c r="T22">
-        <v>9.18</v>
+        <v>1.84</v>
       </c>
       <c r="U22">
-        <v>33.94</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>22.04</v>
+        <v>16.08</v>
       </c>
       <c r="W22">
-        <v>24.97</v>
+        <v>4.63</v>
       </c>
       <c r="X22">
-        <v>29.92</v>
+        <v>30.31</v>
       </c>
       <c r="Y22">
-        <v>26.28</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>43.8</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>75.92</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AF22">
-        <v>2.5</v>
-      </c>
-      <c r="AG22">
-        <v>5.22</v>
-      </c>
-      <c r="AH22">
-        <v>38.92</v>
-      </c>
-      <c r="AI22">
-        <v>0.48</v>
-      </c>
-      <c r="AJ22">
-        <v>1.84</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>16.08</v>
-      </c>
-      <c r="AM22">
-        <v>4.63</v>
-      </c>
-      <c r="AN22">
-        <v>30.31</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>12.15</v>
-      </c>
-      <c r="AS22">
-        <v>75.92</v>
-      </c>
-      <c r="AT22">
-        <v>4.44</v>
-      </c>
-      <c r="AU22">
-        <v>7.5</v>
-      </c>
-      <c r="AV22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>29370</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202107</v>
@@ -3774,10 +2670,10 @@
         <v>4569700620</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>4690033000</v>
@@ -3786,7 +2682,7 @@
         <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>8665604</v>
@@ -3798,117 +2694,69 @@
         <v>50224</v>
       </c>
       <c r="O23">
-        <v>58.9</v>
+        <v>4.81</v>
       </c>
       <c r="P23">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="R23">
-        <v>3.36</v>
+        <v>24.54</v>
       </c>
       <c r="S23">
-        <v>11.15</v>
+        <v>8.48</v>
       </c>
       <c r="T23">
-        <v>12.65</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>19.51</v>
+        <v>0.4</v>
       </c>
       <c r="V23">
-        <v>12.22</v>
+        <v>11.47</v>
       </c>
       <c r="W23">
-        <v>41.1</v>
+        <v>17.86</v>
       </c>
       <c r="X23">
-        <v>34.29</v>
+        <v>19.09</v>
       </c>
       <c r="Y23">
-        <v>49.44</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>16.27</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>44.81</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>4.81</v>
+        <v>25.18</v>
       </c>
       <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>13.35</v>
-      </c>
-      <c r="AH23">
-        <v>24.54</v>
-      </c>
-      <c r="AI23">
-        <v>8.48</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0.4</v>
-      </c>
-      <c r="AL23">
-        <v>11.47</v>
-      </c>
-      <c r="AM23">
-        <v>17.86</v>
-      </c>
-      <c r="AN23">
-        <v>19.09</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>26.1</v>
-      </c>
-      <c r="AS23">
-        <v>44.81</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>25.18</v>
-      </c>
-      <c r="AV23">
         <v>3.91</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>30945</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202108</v>
@@ -3920,10 +2768,10 @@
         <v>4569700620</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>4690033000</v>
@@ -3932,7 +2780,7 @@
         <v>50</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L24">
         <v>5292294</v>
@@ -3944,117 +2792,69 @@
         <v>37111</v>
       </c>
       <c r="O24">
-        <v>60.82</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>39.18</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="R24">
-        <v>13.14</v>
+        <v>29.78</v>
       </c>
       <c r="S24">
-        <v>22.88</v>
+        <v>15.92</v>
       </c>
       <c r="T24">
-        <v>10.74</v>
+        <v>0.52</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="V24">
-        <v>16.24</v>
+        <v>24.42</v>
       </c>
       <c r="W24">
-        <v>37.01</v>
+        <v>17.96</v>
       </c>
       <c r="X24">
-        <v>19.81</v>
+        <v>7.79</v>
       </c>
       <c r="Y24">
-        <v>69.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>10.77</v>
+        <v>2.08</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>38.12</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>2.92</v>
-      </c>
-      <c r="AH24">
-        <v>29.78</v>
-      </c>
-      <c r="AI24">
-        <v>15.92</v>
-      </c>
-      <c r="AJ24">
-        <v>0.52</v>
-      </c>
-      <c r="AK24">
-        <v>0.71</v>
-      </c>
-      <c r="AL24">
-        <v>24.42</v>
-      </c>
-      <c r="AM24">
-        <v>17.96</v>
-      </c>
-      <c r="AN24">
-        <v>7.79</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>2.08</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>38.12</v>
-      </c>
-      <c r="AS24">
-        <v>12.15</v>
-      </c>
-      <c r="AT24">
-        <v>4.71</v>
-      </c>
-      <c r="AU24">
-        <v>34.2</v>
-      </c>
-      <c r="AV24">
         <v>8.74</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>32516</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202109</v>
@@ -4066,10 +2866,10 @@
         <v>4569700620</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>4690033000</v>
@@ -4078,7 +2878,7 @@
         <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>7475586</v>
@@ -4090,117 +2890,69 @@
         <v>34195</v>
       </c>
       <c r="O25">
-        <v>63.4</v>
+        <v>0.75</v>
       </c>
       <c r="P25">
-        <v>36.6</v>
+        <v>0.38</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="R25">
-        <v>5.93</v>
+        <v>18.84</v>
       </c>
       <c r="S25">
-        <v>6.03</v>
+        <v>6.53</v>
       </c>
       <c r="T25">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>25.55</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>19.54</v>
+        <v>26.85</v>
       </c>
       <c r="W25">
-        <v>36.6</v>
+        <v>33.61</v>
       </c>
       <c r="X25">
-        <v>25.18</v>
+        <v>9.91</v>
       </c>
       <c r="Y25">
-        <v>54.08</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>20.74</v>
+        <v>0.3</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>14.84</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>19.88</v>
       </c>
       <c r="AE25">
-        <v>0.75</v>
+        <v>39.38</v>
       </c>
       <c r="AF25">
-        <v>0.38</v>
-      </c>
-      <c r="AG25">
-        <v>3.13</v>
-      </c>
-      <c r="AH25">
-        <v>18.84</v>
-      </c>
-      <c r="AI25">
-        <v>6.53</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>26.85</v>
-      </c>
-      <c r="AM25">
-        <v>33.61</v>
-      </c>
-      <c r="AN25">
-        <v>9.91</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0.3</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>14.84</v>
-      </c>
-      <c r="AS25">
-        <v>25.6</v>
-      </c>
-      <c r="AT25">
-        <v>19.88</v>
-      </c>
-      <c r="AU25">
-        <v>39.38</v>
-      </c>
-      <c r="AV25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>34082</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202110</v>
@@ -4212,10 +2964,10 @@
         <v>4569700620</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>4690033000</v>
@@ -4224,7 +2976,7 @@
         <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L26">
         <v>8381503</v>
@@ -4236,117 +2988,69 @@
         <v>42029</v>
       </c>
       <c r="O26">
-        <v>58.39</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>41.61</v>
+        <v>2.28</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>11.31</v>
       </c>
       <c r="R26">
-        <v>7.01</v>
+        <v>20.39</v>
       </c>
       <c r="S26">
-        <v>19.08</v>
+        <v>2.87</v>
       </c>
       <c r="T26">
-        <v>12.08</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>7.51</v>
+        <v>2.24</v>
       </c>
       <c r="V26">
-        <v>19.73</v>
+        <v>20.2</v>
       </c>
       <c r="W26">
-        <v>34.59</v>
+        <v>22.89</v>
       </c>
       <c r="X26">
-        <v>16.39</v>
+        <v>17.82</v>
       </c>
       <c r="Y26">
-        <v>72.67</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>10.94</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>18.39</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>49.32</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>25.67</v>
       </c>
       <c r="AF26">
-        <v>2.28</v>
-      </c>
-      <c r="AG26">
-        <v>11.31</v>
-      </c>
-      <c r="AH26">
-        <v>20.39</v>
-      </c>
-      <c r="AI26">
-        <v>2.87</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>2.24</v>
-      </c>
-      <c r="AL26">
-        <v>20.2</v>
-      </c>
-      <c r="AM26">
-        <v>22.89</v>
-      </c>
-      <c r="AN26">
-        <v>17.82</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>18.39</v>
-      </c>
-      <c r="AS26">
-        <v>49.32</v>
-      </c>
-      <c r="AT26">
-        <v>6.62</v>
-      </c>
-      <c r="AU26">
-        <v>25.67</v>
-      </c>
-      <c r="AV26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>35656</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202111</v>
@@ -4358,10 +3062,10 @@
         <v>4569700620</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>4690033000</v>
@@ -4370,7 +3074,7 @@
         <v>50</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>9673972</v>
@@ -4382,117 +3086,69 @@
         <v>47792</v>
       </c>
       <c r="O27">
-        <v>82.61</v>
+        <v>1.11</v>
       </c>
       <c r="P27">
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>14.79</v>
       </c>
       <c r="R27">
-        <v>44.02</v>
+        <v>38.52</v>
       </c>
       <c r="S27">
-        <v>7.43</v>
+        <v>1.55</v>
       </c>
       <c r="T27">
-        <v>24.03</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>3.72</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="V27">
-        <v>3.42</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="W27">
-        <v>17.39</v>
+        <v>15.42</v>
       </c>
       <c r="X27">
-        <v>21.79</v>
+        <v>10.54</v>
       </c>
       <c r="Y27">
-        <v>61.85</v>
+        <v>2.32</v>
       </c>
       <c r="Z27">
-        <v>16.35</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>21.84</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>51.78</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AE27">
-        <v>1.11</v>
+        <v>8.33</v>
       </c>
       <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>14.79</v>
-      </c>
-      <c r="AH27">
-        <v>38.52</v>
-      </c>
-      <c r="AI27">
-        <v>1.55</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AL27">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="AM27">
-        <v>15.42</v>
-      </c>
-      <c r="AN27">
-        <v>10.54</v>
-      </c>
-      <c r="AO27">
-        <v>2.32</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>21.84</v>
-      </c>
-      <c r="AS27">
-        <v>51.78</v>
-      </c>
-      <c r="AT27">
-        <v>10.25</v>
-      </c>
-      <c r="AU27">
-        <v>8.33</v>
-      </c>
-      <c r="AV27">
         <v>5.49</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>37237</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202112</v>
@@ -4504,10 +3160,10 @@
         <v>4569700620</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>4690033000</v>
@@ -4516,7 +3172,7 @@
         <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L28">
         <v>5960693</v>
@@ -4528,117 +3184,69 @@
         <v>30619</v>
       </c>
       <c r="O28">
-        <v>60.61</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>39.39</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="R28">
-        <v>13.76</v>
+        <v>45.56</v>
       </c>
       <c r="S28">
-        <v>12.64</v>
+        <v>6.38</v>
       </c>
       <c r="T28">
-        <v>9.619999999999999</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>18.81</v>
+        <v>2.19</v>
       </c>
       <c r="V28">
-        <v>5.77</v>
+        <v>22.61</v>
       </c>
       <c r="W28">
-        <v>39.39</v>
+        <v>6.01</v>
       </c>
       <c r="X28">
-        <v>20.25</v>
+        <v>9.49</v>
       </c>
       <c r="Y28">
-        <v>50.24</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>29.51</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>25.01</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>27.28</v>
       </c>
       <c r="AF28">
-        <v>3.1</v>
-      </c>
-      <c r="AG28">
-        <v>4.66</v>
-      </c>
-      <c r="AH28">
-        <v>45.56</v>
-      </c>
-      <c r="AI28">
-        <v>6.38</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>2.19</v>
-      </c>
-      <c r="AL28">
-        <v>22.61</v>
-      </c>
-      <c r="AM28">
-        <v>6.01</v>
-      </c>
-      <c r="AN28">
-        <v>9.49</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>25.01</v>
-      </c>
-      <c r="AS28">
-        <v>41.25</v>
-      </c>
-      <c r="AT28">
-        <v>3.8</v>
-      </c>
-      <c r="AU28">
-        <v>27.28</v>
-      </c>
-      <c r="AV28">
         <v>2.67</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>38795</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202201</v>
@@ -4650,10 +3258,10 @@
         <v>4569700620</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>4690033000</v>
@@ -4662,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>5721935</v>
@@ -4674,117 +3282,69 @@
         <v>36807</v>
       </c>
       <c r="O29">
-        <v>77.75</v>
+        <v>3.03</v>
       </c>
       <c r="P29">
-        <v>22.25</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R29">
-        <v>7.58</v>
+        <v>30.3</v>
       </c>
       <c r="S29">
-        <v>25.7</v>
+        <v>1.92</v>
       </c>
       <c r="T29">
-        <v>11.65</v>
+        <v>0.57</v>
       </c>
       <c r="U29">
-        <v>17.05</v>
+        <v>5.29</v>
       </c>
       <c r="V29">
-        <v>15.77</v>
+        <v>25.79</v>
       </c>
       <c r="W29">
-        <v>22.25</v>
+        <v>12.62</v>
       </c>
       <c r="X29">
-        <v>9.970000000000001</v>
+        <v>18.29</v>
       </c>
       <c r="Y29">
-        <v>63.38</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>26.64</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>32.73</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>32.92</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="AE29">
-        <v>3.03</v>
+        <v>26.15</v>
       </c>
       <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>2.19</v>
-      </c>
-      <c r="AH29">
-        <v>30.3</v>
-      </c>
-      <c r="AI29">
-        <v>1.92</v>
-      </c>
-      <c r="AJ29">
         <v>0.57</v>
       </c>
-      <c r="AK29">
-        <v>5.29</v>
-      </c>
-      <c r="AL29">
-        <v>25.79</v>
-      </c>
-      <c r="AM29">
-        <v>12.62</v>
-      </c>
-      <c r="AN29">
-        <v>18.29</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>32.73</v>
-      </c>
-      <c r="AS29">
-        <v>32.92</v>
-      </c>
-      <c r="AT29">
-        <v>7.63</v>
-      </c>
-      <c r="AU29">
-        <v>26.15</v>
-      </c>
-      <c r="AV29">
-        <v>0.57</v>
-      </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>40348</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202202</v>
@@ -4796,10 +3356,10 @@
         <v>4569700620</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>4690033000</v>
@@ -4808,7 +3368,7 @@
         <v>50</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L30">
         <v>3289757</v>
@@ -4820,117 +3380,69 @@
         <v>34478</v>
       </c>
       <c r="O30">
-        <v>82.31999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P30">
-        <v>17.68</v>
+        <v>1.48</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>5.77</v>
       </c>
       <c r="R30">
-        <v>7.15</v>
+        <v>1.18</v>
       </c>
       <c r="S30">
-        <v>12.83</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>7.93</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>12.31</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>42.1</v>
+        <v>29.87</v>
       </c>
       <c r="W30">
-        <v>17.68</v>
+        <v>37.43</v>
       </c>
       <c r="X30">
-        <v>10.25</v>
+        <v>23.38</v>
       </c>
       <c r="Y30">
-        <v>51.84</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>37.91</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>10.17</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>41.83</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE30">
-        <v>0.89</v>
+        <v>46.52</v>
       </c>
       <c r="AF30">
-        <v>1.48</v>
-      </c>
-      <c r="AG30">
-        <v>5.77</v>
-      </c>
-      <c r="AH30">
-        <v>1.18</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>29.87</v>
-      </c>
-      <c r="AM30">
-        <v>37.43</v>
-      </c>
-      <c r="AN30">
-        <v>23.38</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>10.17</v>
-      </c>
-      <c r="AS30">
-        <v>41.83</v>
-      </c>
-      <c r="AT30">
-        <v>1.48</v>
-      </c>
-      <c r="AU30">
-        <v>46.52</v>
-      </c>
-      <c r="AV30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>41898</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202203</v>
@@ -4942,10 +3454,10 @@
         <v>4569700620</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>4690033000</v>
@@ -4954,7 +3466,7 @@
         <v>50</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L31">
         <v>4877664</v>
@@ -4966,117 +3478,69 @@
         <v>31351</v>
       </c>
       <c r="O31">
-        <v>86.56</v>
+        <v>4.47</v>
       </c>
       <c r="P31">
-        <v>13.44</v>
+        <v>1.71</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="R31">
-        <v>2.64</v>
+        <v>32.34</v>
       </c>
       <c r="S31">
-        <v>18.51</v>
+        <v>0.71</v>
       </c>
       <c r="T31">
-        <v>13.18</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>11.28</v>
+        <v>2.9</v>
       </c>
       <c r="V31">
-        <v>40.96</v>
+        <v>11.73</v>
       </c>
       <c r="W31">
-        <v>13.44</v>
+        <v>26.57</v>
       </c>
       <c r="X31">
-        <v>23.87</v>
+        <v>17.78</v>
       </c>
       <c r="Y31">
-        <v>27.45</v>
+        <v>3.03</v>
       </c>
       <c r="Z31">
-        <v>48.68</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>53.19</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="AE31">
-        <v>4.47</v>
+        <v>19.8</v>
       </c>
       <c r="AF31">
-        <v>1.71</v>
-      </c>
-      <c r="AG31">
-        <v>1.79</v>
-      </c>
-      <c r="AH31">
-        <v>32.34</v>
-      </c>
-      <c r="AI31">
-        <v>0.71</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>2.9</v>
-      </c>
-      <c r="AL31">
-        <v>11.73</v>
-      </c>
-      <c r="AM31">
-        <v>26.57</v>
-      </c>
-      <c r="AN31">
-        <v>17.78</v>
-      </c>
-      <c r="AO31">
-        <v>3.03</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>10.36</v>
-      </c>
-      <c r="AS31">
-        <v>53.19</v>
-      </c>
-      <c r="AT31">
-        <v>11.56</v>
-      </c>
-      <c r="AU31">
-        <v>19.8</v>
-      </c>
-      <c r="AV31">
         <v>2.06</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>43462</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202204</v>
@@ -5088,10 +3552,10 @@
         <v>4569700620</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>4690033000</v>
@@ -5100,7 +3564,7 @@
         <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L32">
         <v>3638893</v>
@@ -5112,117 +3576,69 @@
         <v>32695</v>
       </c>
       <c r="O32">
-        <v>80.73</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>19.27</v>
+        <v>1.15</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="R32">
-        <v>7.08</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S32">
-        <v>15.41</v>
+        <v>4.44</v>
       </c>
       <c r="T32">
-        <v>4.44</v>
+        <v>1.57</v>
       </c>
       <c r="U32">
-        <v>14.77</v>
+        <v>11.26</v>
       </c>
       <c r="V32">
-        <v>39.03</v>
+        <v>10.12</v>
       </c>
       <c r="W32">
-        <v>19.27</v>
+        <v>20.67</v>
       </c>
       <c r="X32">
-        <v>23.65</v>
+        <v>25.88</v>
       </c>
       <c r="Y32">
-        <v>24.99</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>51.35</v>
+        <v>1.57</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>25.88</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>28.91</v>
       </c>
       <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>38.71</v>
       </c>
       <c r="AF32">
-        <v>1.15</v>
-      </c>
-      <c r="AG32">
-        <v>16.6</v>
-      </c>
-      <c r="AH32">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AI32">
-        <v>4.44</v>
-      </c>
-      <c r="AJ32">
-        <v>1.57</v>
-      </c>
-      <c r="AK32">
-        <v>11.26</v>
-      </c>
-      <c r="AL32">
-        <v>10.12</v>
-      </c>
-      <c r="AM32">
-        <v>20.67</v>
-      </c>
-      <c r="AN32">
-        <v>25.88</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1.57</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>25.88</v>
-      </c>
-      <c r="AS32">
-        <v>28.91</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>38.71</v>
-      </c>
-      <c r="AV32">
         <v>4.92</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>45032</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202205</v>
@@ -5234,10 +3650,10 @@
         <v>4569700620</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>4690033000</v>
@@ -5246,7 +3662,7 @@
         <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L33">
         <v>7884363</v>
@@ -5258,105 +3674,57 @@
         <v>40354</v>
       </c>
       <c r="O33">
-        <v>67.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>32.76</v>
+        <v>2.79</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>16.94</v>
+        <v>12.78</v>
       </c>
       <c r="S33">
-        <v>17.05</v>
+        <v>5.09</v>
       </c>
       <c r="T33">
-        <v>7.41</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>5.23</v>
+        <v>19.3</v>
       </c>
       <c r="V33">
-        <v>20.61</v>
+        <v>23.07</v>
       </c>
       <c r="W33">
-        <v>32.76</v>
+        <v>13.36</v>
       </c>
       <c r="X33">
-        <v>21.61</v>
+        <v>23.6</v>
       </c>
       <c r="Y33">
-        <v>41.15</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>37.24</v>
+        <v>1.14</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>22.77</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>14.83</v>
       </c>
       <c r="AF33">
-        <v>2.79</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>12.78</v>
-      </c>
-      <c r="AI33">
-        <v>5.09</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>19.3</v>
-      </c>
-      <c r="AL33">
-        <v>23.07</v>
-      </c>
-      <c r="AM33">
-        <v>13.36</v>
-      </c>
-      <c r="AN33">
-        <v>23.6</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1.14</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>10.4</v>
-      </c>
-      <c r="AS33">
-        <v>37.8</v>
-      </c>
-      <c r="AT33">
-        <v>22.77</v>
-      </c>
-      <c r="AU33">
-        <v>14.83</v>
-      </c>
-      <c r="AV33">
         <v>13.06</v>
       </c>
     </row>
